--- a/parse_xml_get_table_name/text.xlsx
+++ b/parse_xml_get_table_name/text.xlsx
@@ -90,6 +90,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="华文宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>例如：</t>
     </r>
     <r>
@@ -114,7 +119,7 @@
     <t>缺省值</t>
   </si>
   <si>
-    <t>ID</t>
+    <t xml:space="preserve">entrust_price     </t>
   </si>
   <si>
     <t>N19</t>
@@ -2458,9 +2463,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
@@ -2545,34 +2550,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2586,24 +2588,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2611,57 +2619,6 @@
     <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2677,14 +2634,27 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2692,7 +2662,42 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2772,7 +2777,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2784,175 +2957,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3118,17 +3123,44 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3148,37 +3180,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3200,18 +3212,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3220,155 +3225,155 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="37" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="38" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="176" fontId="26" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3472,7 +3477,7 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3484,7 +3489,7 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3499,7 +3504,7 @@
     <xf numFmtId="176" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3529,7 +3534,7 @@
     <xf numFmtId="176" fontId="1" fillId="7" borderId="1" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="7" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="8" borderId="1" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3544,13 +3549,13 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="6" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="6" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3574,22 +3579,22 @@
     <xf numFmtId="176" fontId="1" fillId="7" borderId="1" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="7" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="7" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="7" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3598,7 +3603,7 @@
     <xf numFmtId="176" fontId="2" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="10" fillId="9" borderId="1" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3664,8 +3669,8 @@
   </cellXfs>
   <cellStyles count="52">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 3 2" xfId="1"/>
-    <cellStyle name="常规 2" xfId="2"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 3 2" xfId="2"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="3" builtinId="52"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="4" builtinId="42"/>
     <cellStyle name="强调文字颜色 4" xfId="5" builtinId="41"/>
@@ -3986,7 +3991,7 @@
   <dimension ref="B1:G429"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
